--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tessa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tessa\Documents\Studium-Semester\Master-Arbeit\public-pce-to-fhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD82A3-8388-4482-8BF4-01D6B09FF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B81BC1-8282-4F58-B5CB-89448AE552B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{629467BA-1F7A-4069-B72C-DC8B3EB4A76D}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="2785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="2786">
   <si>
     <t>SCT Identifier</t>
   </si>
@@ -8827,6 +8827,9 @@
   </si>
   <si>
     <t>Endarterectomy }</t>
+  </si>
+  <si>
+    <t>Note: 35 PCEs are actually provided. However, one PCE is contained twice in the database and another PCE violates a cardinality restriction of an attribute. Therefore, these two are not considered and 33 PCEs remain.</t>
   </si>
 </sst>
 </file>
@@ -9579,163 +9582,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9750,7 +9597,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9774,10 +9633,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9786,6 +9642,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9793,6 +9700,102 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24743,10 +24746,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E384589-ACBD-4587-A1C4-6A858CD89DB3}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24783,7 +24786,7 @@
       <c r="A2" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="122" t="s">
         <v>2595</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -24795,7 +24798,7 @@
       <c r="E2" s="32" t="s">
         <v>2626</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="108" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -24803,19 +24806,19 @@
       <c r="A3" s="25" t="s">
         <v>2591</v>
       </c>
-      <c r="B3" s="171"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="34"/>
       <c r="D3" s="72"/>
       <c r="E3" s="33" t="s">
         <v>2591</v>
       </c>
-      <c r="F3" s="160"/>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>2592</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="124" t="s">
         <v>2597</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -24827,13 +24830,13 @@
       <c r="E4" s="58" t="s">
         <v>2592</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>2593</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="87" t="s">
         <v>2571</v>
       </c>
@@ -24843,7 +24846,7 @@
       <c r="E5" s="58" t="s">
         <v>2593</v>
       </c>
-      <c r="F5" s="160"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
@@ -24861,25 +24864,25 @@
       <c r="E6" s="58" t="s">
         <v>2596</v>
       </c>
-      <c r="F6" s="161"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
         <v>2590</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="110" t="s">
         <v>2601</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="112" t="s">
         <v>2569</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="115" t="s">
         <v>2569</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>2632</v>
       </c>
-      <c r="F7" s="166" t="s">
+      <c r="F7" s="118" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -24887,41 +24890,41 @@
       <c r="A8" s="74" t="s">
         <v>2591</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="157"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="74" t="s">
         <v>2591</v>
       </c>
-      <c r="F8" s="166"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>2592</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="157"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="74" t="s">
         <v>2602</v>
       </c>
-      <c r="F9" s="166"/>
+      <c r="F9" s="118"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>2593</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="74"/>
-      <c r="F10" s="166"/>
+      <c r="F10" s="118"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>2600</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="120" t="s">
         <v>2597</v>
       </c>
       <c r="C11" s="78" t="s">
@@ -24931,11 +24934,11 @@
         <v>2598</v>
       </c>
       <c r="E11" s="77"/>
-      <c r="F11" s="166"/>
+      <c r="F11" s="118"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
-      <c r="B12" s="169"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="79" t="s">
         <v>2571</v>
       </c>
@@ -24943,25 +24946,25 @@
         <v>2571</v>
       </c>
       <c r="E12" s="77"/>
-      <c r="F12" s="167"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>2590</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="127" t="s">
         <v>2605</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="128" t="s">
         <v>2569</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="128" t="s">
         <v>2569</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>2633</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="130" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -24969,43 +24972,43 @@
       <c r="A14" s="41" t="s">
         <v>2591</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="38" t="s">
         <v>2591</v>
       </c>
-      <c r="F14" s="120"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>2603</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="38" t="s">
         <v>2603</v>
       </c>
-      <c r="F15" s="120"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>2593</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="119"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="38" t="s">
         <v>2593</v>
       </c>
-      <c r="F16" s="120"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>2604</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="124" t="s">
         <v>2606</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -25017,11 +25020,11 @@
       <c r="E17" s="38" t="s">
         <v>2604</v>
       </c>
-      <c r="F17" s="120"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
-      <c r="B18" s="158"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="55" t="s">
         <v>2571</v>
       </c>
@@ -25029,7 +25032,7 @@
         <v>2571</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="120"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
@@ -25043,25 +25046,25 @@
         <v>2573</v>
       </c>
       <c r="E19" s="44"/>
-      <c r="F19" s="120"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>2590</v>
       </c>
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="131" t="s">
         <v>2610</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="113" t="s">
         <v>2569</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="113" t="s">
         <v>2569</v>
       </c>
       <c r="E20" s="81" t="s">
         <v>2634</v>
       </c>
-      <c r="F20" s="148" t="s">
+      <c r="F20" s="113" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25069,41 +25072,41 @@
       <c r="A21" s="79" t="s">
         <v>2591</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="82" t="s">
         <v>2591</v>
       </c>
-      <c r="F21" s="148"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>2608</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="82" t="s">
         <v>2611</v>
       </c>
-      <c r="F22" s="148"/>
+      <c r="F22" s="113"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>2593</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="148"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="82"/>
-      <c r="F23" s="148"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>2609</v>
       </c>
-      <c r="B24" s="159" t="s">
+      <c r="B24" s="132" t="s">
         <v>2597</v>
       </c>
       <c r="C24" s="73" t="s">
@@ -25113,11 +25116,11 @@
         <v>2598</v>
       </c>
       <c r="E24" s="82"/>
-      <c r="F24" s="148"/>
+      <c r="F24" s="113"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
-      <c r="B25" s="159"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="75" t="s">
         <v>2571</v>
       </c>
@@ -25125,25 +25128,25 @@
         <v>2571</v>
       </c>
       <c r="E25" s="83"/>
-      <c r="F25" s="148"/>
+      <c r="F25" s="113"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="127" t="s">
         <v>2613</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="133" t="s">
         <v>2569</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="128" t="s">
         <v>2569</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>2635</v>
       </c>
-      <c r="F26" s="120" t="s">
+      <c r="F26" s="130" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25151,37 +25154,37 @@
       <c r="A27" s="25" t="s">
         <v>2591</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="46" t="s">
         <v>2591</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="130"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>2608</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="46" t="s">
         <v>2608</v>
       </c>
-      <c r="F28" s="120"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>2593</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="46" t="s">
         <v>2593</v>
       </c>
-      <c r="F29" s="120"/>
+      <c r="F29" s="130"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
@@ -25199,25 +25202,25 @@
       <c r="E30" s="47" t="s">
         <v>2612</v>
       </c>
-      <c r="F30" s="120"/>
+      <c r="F30" s="130"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
         <v>2590</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="131" t="s">
         <v>2617</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="113" t="s">
         <v>2569</v>
       </c>
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="113" t="s">
         <v>2569</v>
       </c>
       <c r="E31" s="76" t="s">
         <v>2636</v>
       </c>
-      <c r="F31" s="148" t="s">
+      <c r="F31" s="113" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25225,31 +25228,31 @@
       <c r="A32" s="74" t="s">
         <v>2591</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
       <c r="E32" s="74" t="s">
         <v>2591</v>
       </c>
-      <c r="F32" s="148"/>
+      <c r="F32" s="113"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>2615</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="74" t="s">
         <v>2618</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
         <v>2593</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="116" t="s">
         <v>2619</v>
       </c>
       <c r="C34" s="78" t="s">
@@ -25259,13 +25262,13 @@
         <v>2598</v>
       </c>
       <c r="E34" s="77"/>
-      <c r="F34" s="148"/>
+      <c r="F34" s="113"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>2616</v>
       </c>
-      <c r="B35" s="157"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="80" t="s">
         <v>2571</v>
       </c>
@@ -25273,7 +25276,7 @@
         <v>2571</v>
       </c>
       <c r="E35" s="77"/>
-      <c r="F35" s="148"/>
+      <c r="F35" s="113"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="75"/>
@@ -25287,25 +25290,25 @@
         <v>2573</v>
       </c>
       <c r="E36" s="75"/>
-      <c r="F36" s="148"/>
+      <c r="F36" s="113"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>2590</v>
       </c>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="138" t="s">
         <v>2624</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="139" t="s">
         <v>2569</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="139" t="s">
         <v>2569</v>
       </c>
       <c r="E37" s="88" t="s">
         <v>2637</v>
       </c>
-      <c r="F37" s="120" t="s">
+      <c r="F37" s="130" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25313,19 +25316,19 @@
       <c r="A38" s="41" t="s">
         <v>2591</v>
       </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
       <c r="E38" s="89" t="s">
         <v>2591</v>
       </c>
-      <c r="F38" s="120"/>
+      <c r="F38" s="130"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>2603</v>
       </c>
-      <c r="B39" s="156" t="s">
+      <c r="B39" s="141" t="s">
         <v>2773</v>
       </c>
       <c r="C39" s="93" t="s">
@@ -25337,13 +25340,13 @@
       <c r="E39" s="89" t="s">
         <v>2603</v>
       </c>
-      <c r="F39" s="120"/>
+      <c r="F39" s="130"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>2593</v>
       </c>
-      <c r="B40" s="156"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="94" t="s">
         <v>2571</v>
       </c>
@@ -25353,37 +25356,37 @@
       <c r="E40" s="89" t="s">
         <v>2593</v>
       </c>
-      <c r="F40" s="120"/>
+      <c r="F40" s="130"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>2621</v>
       </c>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="142" t="s">
         <v>2620</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="143" t="s">
         <v>2573</v>
       </c>
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="143" t="s">
         <v>2573</v>
       </c>
       <c r="E41" s="89" t="s">
         <v>2621</v>
       </c>
-      <c r="F41" s="120"/>
+      <c r="F41" s="130"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>2622</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="89" t="s">
         <v>2625</v>
       </c>
-      <c r="F42" s="120"/>
+      <c r="F42" s="130"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
@@ -25401,25 +25404,25 @@
       <c r="E43" s="89" t="s">
         <v>2623</v>
       </c>
-      <c r="F43" s="123"/>
+      <c r="F43" s="135"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="86" t="s">
         <v>2590</v>
       </c>
-      <c r="B44" s="152" t="s">
+      <c r="B44" s="136" t="s">
         <v>2642</v>
       </c>
-      <c r="C44" s="153" t="s">
+      <c r="C44" s="137" t="s">
         <v>2569</v>
       </c>
-      <c r="D44" s="153" t="s">
+      <c r="D44" s="137" t="s">
         <v>2569</v>
       </c>
       <c r="E44" s="76" t="s">
         <v>2678</v>
       </c>
-      <c r="F44" s="174" t="s">
+      <c r="F44" s="125" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25427,37 +25430,37 @@
       <c r="A45" s="84" t="s">
         <v>2638</v>
       </c>
-      <c r="B45" s="147"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="84" t="s">
         <v>2638</v>
       </c>
-      <c r="F45" s="175"/>
+      <c r="F45" s="126"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
         <v>2639</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="84" t="s">
         <v>2639</v>
       </c>
-      <c r="F46" s="175"/>
+      <c r="F46" s="126"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
         <v>2640</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="84" t="s">
         <v>2640</v>
       </c>
-      <c r="F47" s="175"/>
+      <c r="F47" s="126"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="85" t="s">
@@ -25475,25 +25478,25 @@
       <c r="E48" s="85" t="s">
         <v>2641</v>
       </c>
-      <c r="F48" s="175"/>
+      <c r="F48" s="126"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="B49" s="170" t="s">
+      <c r="B49" s="122" t="s">
         <v>2780</v>
       </c>
-      <c r="C49" s="155" t="s">
+      <c r="C49" s="140" t="s">
         <v>2569</v>
       </c>
-      <c r="D49" s="155" t="s">
+      <c r="D49" s="140" t="s">
         <v>2569</v>
       </c>
       <c r="E49" s="45" t="s">
         <v>2781</v>
       </c>
-      <c r="F49" s="176" t="s">
+      <c r="F49" s="144" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25501,19 +25504,19 @@
       <c r="A50" s="41" t="s">
         <v>2591</v>
       </c>
-      <c r="B50" s="178"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="173" t="s">
+      <c r="B50" s="146"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="107" t="s">
         <v>2591</v>
       </c>
-      <c r="F50" s="177"/>
+      <c r="F50" s="145"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>2778</v>
       </c>
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="140" t="s">
         <v>2782</v>
       </c>
       <c r="C51" s="93" t="s">
@@ -25522,26 +25525,26 @@
       <c r="D51" s="91" t="s">
         <v>2598</v>
       </c>
-      <c r="E51" s="173" t="s">
+      <c r="E51" s="107" t="s">
         <v>2778</v>
       </c>
-      <c r="F51" s="177"/>
+      <c r="F51" s="145"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>2593</v>
       </c>
-      <c r="B52" s="107"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="94" t="s">
         <v>2571</v>
       </c>
       <c r="D52" s="92" t="s">
         <v>2571</v>
       </c>
-      <c r="E52" s="173" t="s">
+      <c r="E52" s="107" t="s">
         <v>2593</v>
       </c>
-      <c r="F52" s="177"/>
+      <c r="F52" s="145"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
@@ -25556,28 +25559,28 @@
       <c r="D53" s="22" t="s">
         <v>2573</v>
       </c>
-      <c r="E53" s="173" t="s">
+      <c r="E53" s="107" t="s">
         <v>2779</v>
       </c>
-      <c r="F53" s="177"/>
+      <c r="F53" s="145"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="s">
         <v>2644</v>
       </c>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="131" t="s">
         <v>2646</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="C54" s="134" t="s">
         <v>2569</v>
       </c>
-      <c r="D54" s="151" t="s">
+      <c r="D54" s="134" t="s">
         <v>2569</v>
       </c>
       <c r="E54" s="76" t="s">
         <v>2679</v>
       </c>
-      <c r="F54" s="151" t="s">
+      <c r="F54" s="134" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25585,13 +25588,13 @@
       <c r="A55" s="84" t="s">
         <v>2638</v>
       </c>
-      <c r="B55" s="147"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
       <c r="E55" s="84" t="s">
         <v>2638</v>
       </c>
-      <c r="F55" s="151"/>
+      <c r="F55" s="134"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="85" t="s">
@@ -25609,25 +25612,25 @@
       <c r="E56" s="85" t="s">
         <v>2645</v>
       </c>
-      <c r="F56" s="151"/>
+      <c r="F56" s="134"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>2648</v>
       </c>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="127" t="s">
         <v>2653</v>
       </c>
-      <c r="C57" s="149" t="s">
+      <c r="C57" s="148" t="s">
         <v>2548</v>
       </c>
-      <c r="D57" s="149" t="s">
+      <c r="D57" s="148" t="s">
         <v>2548</v>
       </c>
       <c r="E57" s="45" t="s">
         <v>2680</v>
       </c>
-      <c r="F57" s="150" t="s">
+      <c r="F57" s="147" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25635,35 +25638,35 @@
       <c r="A58" s="50" t="s">
         <v>2649</v>
       </c>
-      <c r="B58" s="118"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
       <c r="E58" s="53" t="s">
         <v>2654</v>
       </c>
-      <c r="F58" s="150"/>
+      <c r="F58" s="147"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
         <v>2650</v>
       </c>
-      <c r="B59" s="118"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
       <c r="E59" s="53" t="s">
         <v>2652</v>
       </c>
-      <c r="F59" s="150"/>
+      <c r="F59" s="147"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>2651</v>
       </c>
-      <c r="B60" s="118"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
       <c r="E60" s="53"/>
-      <c r="F60" s="150"/>
+      <c r="F60" s="147"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
@@ -25679,25 +25682,25 @@
         <v>2550</v>
       </c>
       <c r="E61" s="54"/>
-      <c r="F61" s="150"/>
+      <c r="F61" s="147"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="86" t="s">
         <v>2648</v>
       </c>
-      <c r="B62" s="147" t="s">
+      <c r="B62" s="131" t="s">
         <v>2658</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="134" t="s">
         <v>2548</v>
       </c>
-      <c r="D62" s="151" t="s">
+      <c r="D62" s="134" t="s">
         <v>2548</v>
       </c>
       <c r="E62" s="76" t="s">
         <v>2681</v>
       </c>
-      <c r="F62" s="151" t="s">
+      <c r="F62" s="134" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25705,25 +25708,25 @@
       <c r="A63" s="84" t="s">
         <v>2649</v>
       </c>
-      <c r="B63" s="147"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="151"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="84" t="s">
         <v>2649</v>
       </c>
-      <c r="F63" s="151"/>
+      <c r="F63" s="134"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>2656</v>
       </c>
-      <c r="B64" s="147"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="151"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
       <c r="E64" s="84" t="s">
         <v>2656</v>
       </c>
-      <c r="F64" s="151"/>
+      <c r="F64" s="134"/>
     </row>
     <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
@@ -25741,7 +25744,7 @@
       <c r="E65" s="84" t="s">
         <v>2651</v>
       </c>
-      <c r="F65" s="151"/>
+      <c r="F65" s="134"/>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
@@ -25759,25 +25762,25 @@
       <c r="E66" s="85" t="s">
         <v>2657</v>
       </c>
-      <c r="F66" s="151"/>
+      <c r="F66" s="134"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>2648</v>
       </c>
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="127" t="s">
         <v>2665</v>
       </c>
-      <c r="C67" s="149" t="s">
+      <c r="C67" s="148" t="s">
         <v>2548</v>
       </c>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="148" t="s">
         <v>2548</v>
       </c>
       <c r="E67" s="45" t="s">
         <v>2682</v>
       </c>
-      <c r="F67" s="150" t="s">
+      <c r="F67" s="147" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25785,35 +25788,35 @@
       <c r="A68" s="50" t="s">
         <v>2649</v>
       </c>
-      <c r="B68" s="118"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
       <c r="E68" s="53" t="s">
         <v>2654</v>
       </c>
-      <c r="F68" s="150"/>
+      <c r="F68" s="147"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
         <v>2663</v>
       </c>
-      <c r="B69" s="118"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
       <c r="E69" s="53" t="s">
         <v>2664</v>
       </c>
-      <c r="F69" s="150"/>
+      <c r="F69" s="147"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>2651</v>
       </c>
-      <c r="B70" s="118"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="150"/>
+      <c r="F70" s="147"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
@@ -25829,25 +25832,25 @@
         <v>2550</v>
       </c>
       <c r="E71" s="54"/>
-      <c r="F71" s="150"/>
+      <c r="F71" s="147"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="86" t="s">
         <v>2648</v>
       </c>
-      <c r="B72" s="147" t="s">
+      <c r="B72" s="131" t="s">
         <v>2669</v>
       </c>
-      <c r="C72" s="151" t="s">
+      <c r="C72" s="134" t="s">
         <v>2548</v>
       </c>
-      <c r="D72" s="151" t="s">
+      <c r="D72" s="134" t="s">
         <v>2548</v>
       </c>
       <c r="E72" s="76" t="s">
         <v>2683</v>
       </c>
-      <c r="F72" s="151" t="s">
+      <c r="F72" s="134" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25855,35 +25858,35 @@
       <c r="A73" s="84" t="s">
         <v>2649</v>
       </c>
-      <c r="B73" s="147"/>
-      <c r="C73" s="151"/>
-      <c r="D73" s="151"/>
+      <c r="B73" s="131"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
       <c r="E73" s="84" t="s">
         <v>2654</v>
       </c>
-      <c r="F73" s="151"/>
+      <c r="F73" s="134"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
         <v>2667</v>
       </c>
-      <c r="B74" s="147"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
       <c r="E74" s="84" t="s">
         <v>2668</v>
       </c>
-      <c r="F74" s="151"/>
+      <c r="F74" s="134"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="84" t="s">
         <v>2651</v>
       </c>
-      <c r="B75" s="147"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
       <c r="E75" s="74"/>
-      <c r="F75" s="151"/>
+      <c r="F75" s="134"/>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="85" t="s">
@@ -25899,25 +25902,25 @@
         <v>2550</v>
       </c>
       <c r="E76" s="75"/>
-      <c r="F76" s="151"/>
+      <c r="F76" s="134"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>2648</v>
       </c>
-      <c r="B77" s="118" t="s">
+      <c r="B77" s="127" t="s">
         <v>2673</v>
       </c>
-      <c r="C77" s="149" t="s">
+      <c r="C77" s="148" t="s">
         <v>2548</v>
       </c>
-      <c r="D77" s="149" t="s">
+      <c r="D77" s="148" t="s">
         <v>2548</v>
       </c>
       <c r="E77" s="45" t="s">
         <v>2684</v>
       </c>
-      <c r="F77" s="150" t="s">
+      <c r="F77" s="147" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25925,37 +25928,37 @@
       <c r="A78" s="50" t="s">
         <v>2649</v>
       </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="53" t="s">
         <v>2649</v>
       </c>
-      <c r="F78" s="150"/>
+      <c r="F78" s="147"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
         <v>2671</v>
       </c>
-      <c r="B79" s="118"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="53" t="s">
         <v>2671</v>
       </c>
-      <c r="F79" s="150"/>
+      <c r="F79" s="147"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
         <v>2651</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
       <c r="E80" s="53" t="s">
         <v>2651</v>
       </c>
-      <c r="F80" s="150"/>
+      <c r="F80" s="147"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
@@ -25973,25 +25976,25 @@
       <c r="E81" s="54" t="s">
         <v>2672</v>
       </c>
-      <c r="F81" s="150"/>
+      <c r="F81" s="147"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="98" t="s">
         <v>2648</v>
       </c>
-      <c r="B82" s="109" t="s">
+      <c r="B82" s="173" t="s">
         <v>2677</v>
       </c>
-      <c r="C82" s="110" t="s">
+      <c r="C82" s="174" t="s">
         <v>2548</v>
       </c>
-      <c r="D82" s="110" t="s">
+      <c r="D82" s="174" t="s">
         <v>2548</v>
       </c>
       <c r="E82" s="100" t="s">
         <v>2685</v>
       </c>
-      <c r="F82" s="151" t="s">
+      <c r="F82" s="134" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -25999,71 +26002,71 @@
       <c r="A83" s="95" t="s">
         <v>2649</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="111"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="175"/>
       <c r="E83" s="96" t="s">
         <v>2654</v>
       </c>
-      <c r="F83" s="151"/>
+      <c r="F83" s="134"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="95" t="s">
         <v>2675</v>
       </c>
-      <c r="B84" s="110" t="s">
+      <c r="B84" s="174" t="s">
         <v>2599</v>
       </c>
-      <c r="C84" s="112" t="s">
+      <c r="C84" s="176" t="s">
         <v>2550</v>
       </c>
-      <c r="D84" s="113" t="s">
+      <c r="D84" s="166" t="s">
         <v>2550</v>
       </c>
       <c r="E84" s="96" t="s">
         <v>2676</v>
       </c>
-      <c r="F84" s="151"/>
+      <c r="F84" s="134"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="95" t="s">
         <v>2651</v>
       </c>
-      <c r="B85" s="110"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="114"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="96" t="s">
         <v>2772</v>
       </c>
-      <c r="F85" s="151"/>
+      <c r="F85" s="134"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="99" t="s">
         <v>2676</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="115"/>
+      <c r="B86" s="174"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="177"/>
       <c r="E86" s="97"/>
-      <c r="F86" s="151"/>
+      <c r="F86" s="134"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>2648</v>
       </c>
-      <c r="B87" s="138" t="s">
+      <c r="B87" s="152" t="s">
         <v>2688</v>
       </c>
-      <c r="C87" s="122" t="s">
+      <c r="C87" s="133" t="s">
         <v>2548</v>
       </c>
-      <c r="D87" s="122" t="s">
+      <c r="D87" s="133" t="s">
         <v>2548</v>
       </c>
       <c r="E87" s="57" t="s">
         <v>2755</v>
       </c>
-      <c r="F87" s="123" t="s">
+      <c r="F87" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26071,25 +26074,25 @@
       <c r="A88" s="41" t="s">
         <v>2649</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="119"/>
-      <c r="D88" s="119"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
       <c r="E88" s="58" t="s">
         <v>2649</v>
       </c>
-      <c r="F88" s="124"/>
+      <c r="F88" s="149"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
         <v>2686</v>
       </c>
-      <c r="B89" s="118"/>
-      <c r="C89" s="119"/>
-      <c r="D89" s="119"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
       <c r="E89" s="58" t="s">
         <v>2686</v>
       </c>
-      <c r="F89" s="124"/>
+      <c r="F89" s="149"/>
     </row>
     <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="41" t="s">
@@ -26107,7 +26110,7 @@
       <c r="E90" s="58" t="s">
         <v>2651</v>
       </c>
-      <c r="F90" s="124"/>
+      <c r="F90" s="149"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="56" t="s">
@@ -26125,25 +26128,25 @@
       <c r="E91" s="59" t="s">
         <v>2689</v>
       </c>
-      <c r="F91" s="125"/>
+      <c r="F91" s="150"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="73" t="s">
         <v>2648</v>
       </c>
-      <c r="B92" s="147" t="s">
+      <c r="B92" s="131" t="s">
         <v>2693</v>
       </c>
-      <c r="C92" s="148" t="s">
+      <c r="C92" s="113" t="s">
         <v>2548</v>
       </c>
-      <c r="D92" s="148" t="s">
+      <c r="D92" s="113" t="s">
         <v>2548</v>
       </c>
       <c r="E92" s="76" t="s">
         <v>2756</v>
       </c>
-      <c r="F92" s="144" t="s">
+      <c r="F92" s="114" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26151,25 +26154,25 @@
       <c r="A93" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="B93" s="147"/>
-      <c r="C93" s="148"/>
-      <c r="D93" s="148"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="113"/>
+      <c r="D93" s="113"/>
       <c r="E93" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="F93" s="145"/>
+      <c r="F93" s="151"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="74" t="s">
         <v>2686</v>
       </c>
-      <c r="B94" s="147"/>
-      <c r="C94" s="148"/>
-      <c r="D94" s="148"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="113"/>
+      <c r="D94" s="113"/>
       <c r="E94" s="74" t="s">
         <v>2686</v>
       </c>
-      <c r="F94" s="145"/>
+      <c r="F94" s="151"/>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="s">
@@ -26187,7 +26190,7 @@
       <c r="E95" s="74" t="s">
         <v>2651</v>
       </c>
-      <c r="F95" s="145"/>
+      <c r="F95" s="151"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="75" t="s">
@@ -26205,25 +26208,25 @@
       <c r="E96" s="75" t="s">
         <v>2692</v>
       </c>
-      <c r="F96" s="146"/>
+      <c r="F96" s="112"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>2648</v>
       </c>
-      <c r="B97" s="118" t="s">
+      <c r="B97" s="127" t="s">
         <v>2693</v>
       </c>
-      <c r="C97" s="119" t="s">
+      <c r="C97" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="D97" s="119" t="s">
+      <c r="D97" s="128" t="s">
         <v>2548</v>
       </c>
       <c r="E97" s="32" t="s">
         <v>2757</v>
       </c>
-      <c r="F97" s="123" t="s">
+      <c r="F97" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26231,25 +26234,25 @@
       <c r="A98" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B98" s="118"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="119"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="128"/>
+      <c r="D98" s="128"/>
       <c r="E98" s="33" t="s">
         <v>2649</v>
       </c>
-      <c r="F98" s="124"/>
+      <c r="F98" s="149"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>2686</v>
       </c>
-      <c r="B99" s="118"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="119"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="128"/>
+      <c r="D99" s="128"/>
       <c r="E99" s="33" t="s">
         <v>2686</v>
       </c>
-      <c r="F99" s="124"/>
+      <c r="F99" s="149"/>
     </row>
     <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
@@ -26267,7 +26270,7 @@
       <c r="E100" s="33" t="s">
         <v>2651</v>
       </c>
-      <c r="F100" s="124"/>
+      <c r="F100" s="149"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -26285,25 +26288,25 @@
       <c r="E101" s="28" t="s">
         <v>2695</v>
       </c>
-      <c r="F101" s="125"/>
+      <c r="F101" s="150"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="73" t="s">
         <v>2648</v>
       </c>
-      <c r="B102" s="147" t="s">
+      <c r="B102" s="131" t="s">
         <v>2699</v>
       </c>
-      <c r="C102" s="148" t="s">
+      <c r="C102" s="113" t="s">
         <v>2548</v>
       </c>
-      <c r="D102" s="148" t="s">
+      <c r="D102" s="113" t="s">
         <v>2548</v>
       </c>
       <c r="E102" s="76" t="s">
         <v>2758</v>
       </c>
-      <c r="F102" s="144" t="s">
+      <c r="F102" s="114" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26311,25 +26314,25 @@
       <c r="A103" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="B103" s="147"/>
-      <c r="C103" s="148"/>
-      <c r="D103" s="148"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
       <c r="E103" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="F103" s="145"/>
+      <c r="F103" s="151"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="74" t="s">
         <v>2697</v>
       </c>
-      <c r="B104" s="147"/>
-      <c r="C104" s="148"/>
-      <c r="D104" s="148"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="113"/>
       <c r="E104" s="74" t="s">
         <v>2697</v>
       </c>
-      <c r="F104" s="145"/>
+      <c r="F104" s="151"/>
     </row>
     <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="74" t="s">
@@ -26347,7 +26350,7 @@
       <c r="E105" s="74" t="s">
         <v>2651</v>
       </c>
-      <c r="F105" s="145"/>
+      <c r="F105" s="151"/>
     </row>
     <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="75" t="s">
@@ -26365,25 +26368,25 @@
       <c r="E106" s="75" t="s">
         <v>2698</v>
       </c>
-      <c r="F106" s="146"/>
+      <c r="F106" s="112"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>2648</v>
       </c>
-      <c r="B107" s="118" t="s">
+      <c r="B107" s="127" t="s">
         <v>2703</v>
       </c>
-      <c r="C107" s="119" t="s">
+      <c r="C107" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="D107" s="119" t="s">
+      <c r="D107" s="128" t="s">
         <v>2548</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>2759</v>
       </c>
-      <c r="F107" s="123" t="s">
+      <c r="F107" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26391,35 +26394,35 @@
       <c r="A108" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B108" s="118"/>
-      <c r="C108" s="119"/>
-      <c r="D108" s="119"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="128"/>
+      <c r="D108" s="128"/>
       <c r="E108" s="33" t="s">
         <v>2654</v>
       </c>
-      <c r="F108" s="124"/>
+      <c r="F108" s="149"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>2656</v>
       </c>
-      <c r="B109" s="118"/>
-      <c r="C109" s="119"/>
-      <c r="D109" s="119"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="128"/>
+      <c r="D109" s="128"/>
       <c r="E109" s="33" t="s">
         <v>2702</v>
       </c>
-      <c r="F109" s="124"/>
+      <c r="F109" s="149"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>2651</v>
       </c>
-      <c r="B110" s="118"/>
-      <c r="C110" s="119"/>
-      <c r="D110" s="119"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="128"/>
+      <c r="D110" s="128"/>
       <c r="E110" s="61"/>
-      <c r="F110" s="124"/>
+      <c r="F110" s="149"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -26435,25 +26438,25 @@
         <v>2550</v>
       </c>
       <c r="E111" s="62"/>
-      <c r="F111" s="125"/>
+      <c r="F111" s="150"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="73" t="s">
         <v>2648</v>
       </c>
-      <c r="B112" s="147" t="s">
+      <c r="B112" s="131" t="s">
         <v>2707</v>
       </c>
-      <c r="C112" s="148" t="s">
+      <c r="C112" s="113" t="s">
         <v>2548</v>
       </c>
-      <c r="D112" s="148" t="s">
+      <c r="D112" s="113" t="s">
         <v>2548</v>
       </c>
       <c r="E112" s="76" t="s">
         <v>2760</v>
       </c>
-      <c r="F112" s="144" t="s">
+      <c r="F112" s="114" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26461,37 +26464,37 @@
       <c r="A113" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="B113" s="147"/>
-      <c r="C113" s="148"/>
-      <c r="D113" s="148"/>
+      <c r="B113" s="131"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
       <c r="E113" s="74" t="s">
         <v>2649</v>
       </c>
-      <c r="F113" s="145"/>
+      <c r="F113" s="151"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="74" t="s">
         <v>2705</v>
       </c>
-      <c r="B114" s="147"/>
-      <c r="C114" s="148"/>
-      <c r="D114" s="148"/>
+      <c r="B114" s="131"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="113"/>
       <c r="E114" s="74" t="s">
         <v>2705</v>
       </c>
-      <c r="F114" s="145"/>
+      <c r="F114" s="151"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="74" t="s">
         <v>2651</v>
       </c>
-      <c r="B115" s="147"/>
-      <c r="C115" s="148"/>
-      <c r="D115" s="148"/>
+      <c r="B115" s="131"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
       <c r="E115" s="74" t="s">
         <v>2651</v>
       </c>
-      <c r="F115" s="145"/>
+      <c r="F115" s="151"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="75" t="s">
@@ -26509,25 +26512,25 @@
       <c r="E116" s="75" t="s">
         <v>2706</v>
       </c>
-      <c r="F116" s="146"/>
+      <c r="F116" s="112"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>2648</v>
       </c>
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="127" t="s">
         <v>2711</v>
       </c>
-      <c r="C117" s="119" t="s">
+      <c r="C117" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="D117" s="119" t="s">
+      <c r="D117" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="E117" s="141" t="s">
+      <c r="E117" s="159" t="s">
         <v>2711</v>
       </c>
-      <c r="F117" s="123" t="s">
+      <c r="F117" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26535,59 +26538,59 @@
       <c r="A118" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B118" s="118"/>
-      <c r="C118" s="119"/>
-      <c r="D118" s="119"/>
-      <c r="E118" s="142"/>
-      <c r="F118" s="124"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="160"/>
+      <c r="F118" s="149"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
         <v>2709</v>
       </c>
-      <c r="B119" s="118"/>
-      <c r="C119" s="119"/>
-      <c r="D119" s="119"/>
-      <c r="E119" s="142"/>
-      <c r="F119" s="124"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="128"/>
+      <c r="D119" s="128"/>
+      <c r="E119" s="160"/>
+      <c r="F119" s="149"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
         <v>2651</v>
       </c>
-      <c r="B120" s="118"/>
-      <c r="C120" s="119"/>
-      <c r="D120" s="119"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="124"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="128"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="160"/>
+      <c r="F120" s="149"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>2710</v>
       </c>
-      <c r="B121" s="139"/>
-      <c r="C121" s="140"/>
-      <c r="D121" s="140"/>
-      <c r="E121" s="143"/>
-      <c r="F121" s="125"/>
+      <c r="B121" s="158"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="161"/>
+      <c r="F121" s="150"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="78" t="s">
         <v>2648</v>
       </c>
-      <c r="B122" s="116" t="s">
+      <c r="B122" s="178" t="s">
         <v>2714</v>
       </c>
-      <c r="C122" s="117" t="s">
+      <c r="C122" s="162" t="s">
         <v>2548</v>
       </c>
-      <c r="D122" s="117" t="s">
+      <c r="D122" s="162" t="s">
         <v>2548</v>
       </c>
       <c r="E122" s="100" t="s">
         <v>2761</v>
       </c>
-      <c r="F122" s="144" t="s">
+      <c r="F122" s="114" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26595,13 +26598,13 @@
       <c r="A123" s="79" t="s">
         <v>2649</v>
       </c>
-      <c r="B123" s="116"/>
-      <c r="C123" s="117"/>
-      <c r="D123" s="117"/>
+      <c r="B123" s="178"/>
+      <c r="C123" s="162"/>
+      <c r="D123" s="162"/>
       <c r="E123" s="77" t="s">
         <v>2649</v>
       </c>
-      <c r="F123" s="145"/>
+      <c r="F123" s="151"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="79" t="s">
@@ -26619,55 +26622,55 @@
       <c r="E124" s="77" t="s">
         <v>2712</v>
       </c>
-      <c r="F124" s="145"/>
+      <c r="F124" s="151"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="79" t="s">
         <v>2651</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="162" t="s">
         <v>2776</v>
       </c>
-      <c r="C125" s="117" t="s">
+      <c r="C125" s="162" t="s">
         <v>2550</v>
       </c>
-      <c r="D125" s="117" t="s">
+      <c r="D125" s="162" t="s">
         <v>2662</v>
       </c>
       <c r="E125" s="77" t="s">
         <v>2651</v>
       </c>
-      <c r="F125" s="145"/>
+      <c r="F125" s="151"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="80" t="s">
         <v>2713</v>
       </c>
-      <c r="B126" s="117"/>
-      <c r="C126" s="117"/>
-      <c r="D126" s="117"/>
+      <c r="B126" s="162"/>
+      <c r="C126" s="162"/>
+      <c r="D126" s="162"/>
       <c r="E126" s="97" t="s">
         <v>2713</v>
       </c>
-      <c r="F126" s="146"/>
+      <c r="F126" s="112"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>2648</v>
       </c>
-      <c r="B127" s="138" t="s">
+      <c r="B127" s="152" t="s">
         <v>2716</v>
       </c>
-      <c r="C127" s="122" t="s">
+      <c r="C127" s="133" t="s">
         <v>2548</v>
       </c>
-      <c r="D127" s="122" t="s">
+      <c r="D127" s="133" t="s">
         <v>2548</v>
       </c>
       <c r="E127" s="32" t="s">
         <v>2762</v>
       </c>
-      <c r="F127" s="123" t="s">
+      <c r="F127" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26675,25 +26678,25 @@
       <c r="A128" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B128" s="118"/>
-      <c r="C128" s="119"/>
-      <c r="D128" s="119"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="128"/>
+      <c r="D128" s="128"/>
       <c r="E128" s="33" t="s">
         <v>2649</v>
       </c>
-      <c r="F128" s="124"/>
+      <c r="F128" s="149"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
         <v>2715</v>
       </c>
-      <c r="B129" s="118"/>
-      <c r="C129" s="119"/>
-      <c r="D129" s="119"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="128"/>
+      <c r="D129" s="128"/>
       <c r="E129" s="33" t="s">
         <v>2715</v>
       </c>
-      <c r="F129" s="124"/>
+      <c r="F129" s="149"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
@@ -26711,7 +26714,7 @@
       <c r="E130" s="33" t="s">
         <v>2651</v>
       </c>
-      <c r="F130" s="124"/>
+      <c r="F130" s="149"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
@@ -26729,25 +26732,25 @@
       <c r="E131" s="28" t="s">
         <v>2676</v>
       </c>
-      <c r="F131" s="125"/>
+      <c r="F131" s="150"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="63" t="s">
         <v>2648</v>
       </c>
-      <c r="B132" s="126" t="s">
+      <c r="B132" s="153" t="s">
         <v>2720</v>
       </c>
-      <c r="C132" s="121" t="s">
+      <c r="C132" s="154" t="s">
         <v>2548</v>
       </c>
-      <c r="D132" s="121" t="s">
+      <c r="D132" s="154" t="s">
         <v>2548</v>
       </c>
       <c r="E132" s="66" t="s">
         <v>2763</v>
       </c>
-      <c r="F132" s="134" t="s">
+      <c r="F132" s="155" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26755,35 +26758,35 @@
       <c r="A133" s="64" t="s">
         <v>2649</v>
       </c>
-      <c r="B133" s="126"/>
-      <c r="C133" s="121"/>
-      <c r="D133" s="121"/>
+      <c r="B133" s="153"/>
+      <c r="C133" s="154"/>
+      <c r="D133" s="154"/>
       <c r="E133" s="64" t="s">
         <v>2654</v>
       </c>
-      <c r="F133" s="135"/>
+      <c r="F133" s="156"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="64" t="s">
         <v>2718</v>
       </c>
-      <c r="B134" s="126"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="121"/>
+      <c r="B134" s="153"/>
+      <c r="C134" s="154"/>
+      <c r="D134" s="154"/>
       <c r="E134" s="64" t="s">
         <v>2719</v>
       </c>
-      <c r="F134" s="135"/>
+      <c r="F134" s="156"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="64" t="s">
         <v>2651</v>
       </c>
-      <c r="B135" s="126"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="121"/>
+      <c r="B135" s="153"/>
+      <c r="C135" s="154"/>
+      <c r="D135" s="154"/>
       <c r="E135" s="67"/>
-      <c r="F135" s="135"/>
+      <c r="F135" s="156"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="65" t="s">
@@ -26799,25 +26802,25 @@
         <v>2552</v>
       </c>
       <c r="E136" s="68"/>
-      <c r="F136" s="136"/>
+      <c r="F136" s="157"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>2648</v>
       </c>
-      <c r="B137" s="118" t="s">
+      <c r="B137" s="127" t="s">
         <v>2726</v>
       </c>
-      <c r="C137" s="119" t="s">
+      <c r="C137" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="D137" s="119" t="s">
+      <c r="D137" s="128" t="s">
         <v>2548</v>
       </c>
       <c r="E137" s="32" t="s">
         <v>2764</v>
       </c>
-      <c r="F137" s="123" t="s">
+      <c r="F137" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26825,49 +26828,49 @@
       <c r="A138" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B138" s="118"/>
-      <c r="C138" s="119"/>
-      <c r="D138" s="119"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="128"/>
       <c r="E138" s="33" t="s">
         <v>2649</v>
       </c>
-      <c r="F138" s="124"/>
+      <c r="F138" s="149"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>2722</v>
       </c>
-      <c r="B139" s="118"/>
-      <c r="C139" s="119"/>
-      <c r="D139" s="119"/>
+      <c r="B139" s="127"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="128"/>
       <c r="E139" s="33" t="s">
         <v>2722</v>
       </c>
-      <c r="F139" s="124"/>
+      <c r="F139" s="149"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
         <v>2651</v>
       </c>
-      <c r="B140" s="118"/>
-      <c r="C140" s="119"/>
-      <c r="D140" s="119"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="128"/>
       <c r="E140" s="33" t="s">
         <v>2651</v>
       </c>
-      <c r="F140" s="124"/>
+      <c r="F140" s="149"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>2723</v>
       </c>
-      <c r="B141" s="118"/>
-      <c r="C141" s="119"/>
-      <c r="D141" s="119"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="128"/>
+      <c r="D141" s="128"/>
       <c r="E141" s="33" t="s">
         <v>2723</v>
       </c>
-      <c r="F141" s="124"/>
+      <c r="F141" s="149"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
@@ -26885,7 +26888,7 @@
       <c r="E142" s="33" t="s">
         <v>2724</v>
       </c>
-      <c r="F142" s="124"/>
+      <c r="F142" s="149"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
@@ -26903,25 +26906,25 @@
       <c r="E143" s="28" t="s">
         <v>2725</v>
       </c>
-      <c r="F143" s="125"/>
+      <c r="F143" s="150"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="63" t="s">
         <v>2648</v>
       </c>
-      <c r="B144" s="126" t="s">
+      <c r="B144" s="153" t="s">
         <v>2735</v>
       </c>
-      <c r="C144" s="121" t="s">
+      <c r="C144" s="154" t="s">
         <v>2548</v>
       </c>
-      <c r="D144" s="121" t="s">
+      <c r="D144" s="154" t="s">
         <v>2548</v>
       </c>
       <c r="E144" s="66" t="s">
         <v>2765</v>
       </c>
-      <c r="F144" s="134" t="s">
+      <c r="F144" s="155" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -26929,61 +26932,61 @@
       <c r="A145" s="64" t="s">
         <v>2654</v>
       </c>
-      <c r="B145" s="126"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="121"/>
+      <c r="B145" s="153"/>
+      <c r="C145" s="154"/>
+      <c r="D145" s="154"/>
       <c r="E145" s="64" t="s">
         <v>2736</v>
       </c>
-      <c r="F145" s="135"/>
+      <c r="F145" s="156"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="64" t="s">
         <v>2730</v>
       </c>
-      <c r="B146" s="126"/>
-      <c r="C146" s="121"/>
-      <c r="D146" s="121"/>
+      <c r="B146" s="153"/>
+      <c r="C146" s="154"/>
+      <c r="D146" s="154"/>
       <c r="E146" s="64" t="s">
         <v>2734</v>
       </c>
-      <c r="F146" s="135"/>
+      <c r="F146" s="156"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>2731</v>
       </c>
-      <c r="B147" s="126"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="121"/>
+      <c r="B147" s="153"/>
+      <c r="C147" s="154"/>
+      <c r="D147" s="154"/>
       <c r="E147" s="67"/>
-      <c r="F147" s="135"/>
+      <c r="F147" s="156"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
         <v>2732</v>
       </c>
-      <c r="B148" s="126"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="121"/>
+      <c r="B148" s="153"/>
+      <c r="C148" s="154"/>
+      <c r="D148" s="154"/>
       <c r="E148" s="67"/>
-      <c r="F148" s="135"/>
+      <c r="F148" s="156"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="64" t="s">
         <v>2733</v>
       </c>
-      <c r="B149" s="126"/>
-      <c r="C149" s="134"/>
-      <c r="D149" s="134"/>
+      <c r="B149" s="153"/>
+      <c r="C149" s="155"/>
+      <c r="D149" s="155"/>
       <c r="E149" s="67"/>
-      <c r="F149" s="135"/>
+      <c r="F149" s="156"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="64" t="s">
         <v>2734</v>
       </c>
-      <c r="B150" s="137" t="s">
+      <c r="B150" s="163" t="s">
         <v>2737</v>
       </c>
       <c r="C150" s="69" t="s">
@@ -26993,11 +26996,11 @@
         <v>2598</v>
       </c>
       <c r="E150" s="67"/>
-      <c r="F150" s="135"/>
+      <c r="F150" s="156"/>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="137"/>
+      <c r="B151" s="163"/>
       <c r="C151" s="70" t="s">
         <v>2738</v>
       </c>
@@ -27005,25 +27008,25 @@
         <v>2738</v>
       </c>
       <c r="E151" s="68"/>
-      <c r="F151" s="136"/>
+      <c r="F151" s="157"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>2739</v>
       </c>
-      <c r="B152" s="118" t="s">
+      <c r="B152" s="127" t="s">
         <v>2741</v>
       </c>
-      <c r="C152" s="122" t="s">
+      <c r="C152" s="133" t="s">
         <v>2548</v>
       </c>
-      <c r="D152" s="122" t="s">
+      <c r="D152" s="133" t="s">
         <v>2548</v>
       </c>
       <c r="E152" s="32" t="s">
         <v>2766</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="135" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -27031,13 +27034,13 @@
       <c r="A153" s="25" t="s">
         <v>2654</v>
       </c>
-      <c r="B153" s="118"/>
-      <c r="C153" s="119"/>
-      <c r="D153" s="119"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="128"/>
+      <c r="D153" s="128"/>
       <c r="E153" s="33" t="s">
         <v>2654</v>
       </c>
-      <c r="F153" s="124"/>
+      <c r="F153" s="149"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
@@ -27055,25 +27058,25 @@
       <c r="E154" s="28" t="s">
         <v>2740</v>
       </c>
-      <c r="F154" s="125"/>
+      <c r="F154" s="150"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="63" t="s">
         <v>2648</v>
       </c>
-      <c r="B155" s="126" t="s">
+      <c r="B155" s="153" t="s">
         <v>2745</v>
       </c>
-      <c r="C155" s="121" t="s">
+      <c r="C155" s="154" t="s">
         <v>2548</v>
       </c>
-      <c r="D155" s="121" t="s">
+      <c r="D155" s="154" t="s">
         <v>2548</v>
       </c>
       <c r="E155" s="66" t="s">
         <v>2767</v>
       </c>
-      <c r="F155" s="121" t="s">
+      <c r="F155" s="154" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -27081,45 +27084,45 @@
       <c r="A156" s="64" t="s">
         <v>2649</v>
       </c>
-      <c r="B156" s="126"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="121"/>
+      <c r="B156" s="153"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="154"/>
       <c r="E156" s="64" t="s">
         <v>2654</v>
       </c>
-      <c r="F156" s="121"/>
+      <c r="F156" s="154"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="64" t="s">
         <v>2743</v>
       </c>
-      <c r="B157" s="126"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="121"/>
+      <c r="B157" s="153"/>
+      <c r="C157" s="154"/>
+      <c r="D157" s="154"/>
       <c r="E157" s="64" t="s">
         <v>2744</v>
       </c>
-      <c r="F157" s="121"/>
+      <c r="F157" s="154"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="64" t="s">
         <v>2651</v>
       </c>
-      <c r="B158" s="126"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="121"/>
+      <c r="B158" s="153"/>
+      <c r="C158" s="154"/>
+      <c r="D158" s="154"/>
       <c r="E158" s="67"/>
-      <c r="F158" s="121"/>
+      <c r="F158" s="154"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="64" t="s">
         <v>2744</v>
       </c>
-      <c r="B159" s="126"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="121"/>
+      <c r="B159" s="153"/>
+      <c r="C159" s="154"/>
+      <c r="D159" s="154"/>
       <c r="E159" s="67"/>
-      <c r="F159" s="121"/>
+      <c r="F159" s="154"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
@@ -27133,25 +27136,25 @@
         <v>2550</v>
       </c>
       <c r="E160" s="68"/>
-      <c r="F160" s="121"/>
+      <c r="F160" s="154"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
         <v>2747</v>
       </c>
-      <c r="B161" s="118" t="s">
+      <c r="B161" s="127" t="s">
         <v>2750</v>
       </c>
-      <c r="C161" s="119" t="s">
+      <c r="C161" s="128" t="s">
         <v>2548</v>
       </c>
-      <c r="D161" s="119" t="s">
+      <c r="D161" s="128" t="s">
         <v>2548</v>
       </c>
       <c r="E161" s="32" t="s">
         <v>2768</v>
       </c>
-      <c r="F161" s="120" t="s">
+      <c r="F161" s="130" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -27159,25 +27162,25 @@
       <c r="A162" s="25" t="s">
         <v>2649</v>
       </c>
-      <c r="B162" s="118"/>
-      <c r="C162" s="119"/>
-      <c r="D162" s="119"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="128"/>
+      <c r="D162" s="128"/>
       <c r="E162" s="33" t="s">
         <v>2649</v>
       </c>
-      <c r="F162" s="120"/>
+      <c r="F162" s="130"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>2748</v>
       </c>
-      <c r="B163" s="118"/>
-      <c r="C163" s="119"/>
-      <c r="D163" s="119"/>
+      <c r="B163" s="127"/>
+      <c r="C163" s="128"/>
+      <c r="D163" s="128"/>
       <c r="E163" s="33" t="s">
         <v>2748</v>
       </c>
-      <c r="F163" s="120"/>
+      <c r="F163" s="130"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
@@ -27195,7 +27198,7 @@
       <c r="E164" s="33" t="s">
         <v>2651</v>
       </c>
-      <c r="F164" s="120"/>
+      <c r="F164" s="130"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
@@ -27213,25 +27216,25 @@
       <c r="E165" s="28" t="s">
         <v>2749</v>
       </c>
-      <c r="F165" s="120"/>
+      <c r="F165" s="130"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="63" t="s">
         <v>2747</v>
       </c>
-      <c r="B166" s="127" t="s">
+      <c r="B166" s="164" t="s">
         <v>2754</v>
       </c>
-      <c r="C166" s="113" t="s">
+      <c r="C166" s="166" t="s">
         <v>2548</v>
       </c>
-      <c r="D166" s="113" t="s">
+      <c r="D166" s="166" t="s">
         <v>2548</v>
       </c>
       <c r="E166" s="66" t="s">
         <v>2769</v>
       </c>
-      <c r="F166" s="121" t="s">
+      <c r="F166" s="154" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -27239,13 +27242,13 @@
       <c r="A167" s="64" t="s">
         <v>2649</v>
       </c>
-      <c r="B167" s="128"/>
-      <c r="C167" s="114"/>
-      <c r="D167" s="114"/>
+      <c r="B167" s="165"/>
+      <c r="C167" s="167"/>
+      <c r="D167" s="167"/>
       <c r="E167" s="64" t="s">
         <v>2649</v>
       </c>
-      <c r="F167" s="121"/>
+      <c r="F167" s="154"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="103" t="s">
@@ -27263,7 +27266,7 @@
       <c r="E168" s="104" t="s">
         <v>2748</v>
       </c>
-      <c r="F168" s="121"/>
+      <c r="F168" s="154"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="103" t="s">
@@ -27281,13 +27284,13 @@
       <c r="E169" s="104" t="s">
         <v>2651</v>
       </c>
-      <c r="F169" s="121"/>
+      <c r="F169" s="154"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="103" t="s">
         <v>2753</v>
       </c>
-      <c r="B170" s="129" t="s">
+      <c r="B170" s="168" t="s">
         <v>2737</v>
       </c>
       <c r="C170" s="106" t="s">
@@ -27299,38 +27302,166 @@
       <c r="E170" s="104" t="s">
         <v>2753</v>
       </c>
-      <c r="F170" s="121"/>
+      <c r="F170" s="154"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="103" t="s">
         <v>2733</v>
       </c>
-      <c r="B171" s="130"/>
-      <c r="C171" s="132" t="s">
+      <c r="B171" s="169"/>
+      <c r="C171" s="171" t="s">
         <v>2738</v>
       </c>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="171" t="s">
         <v>2738</v>
       </c>
       <c r="E171" s="104" t="s">
         <v>2733</v>
       </c>
-      <c r="F171" s="121"/>
+      <c r="F171" s="154"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="70" t="s">
         <v>2734</v>
       </c>
-      <c r="B172" s="131"/>
-      <c r="C172" s="133"/>
-      <c r="D172" s="133"/>
+      <c r="B172" s="170"/>
+      <c r="C172" s="172"/>
+      <c r="D172" s="172"/>
       <c r="E172" s="105" t="s">
         <v>2734</v>
       </c>
-      <c r="F172" s="121"/>
+      <c r="F172" s="154"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2785</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="F161:F165"/>
+    <mergeCell ref="F166:F172"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="F155:F160"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="F137:F143"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="F132:F136"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -27355,129 +27486,6 @@
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="F26:F30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="F132:F136"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="F137:F143"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="F161:F165"/>
-    <mergeCell ref="F166:F172"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="F155:F160"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
